--- a/5 сем матстат/ЭКЗ/калькуляторы.xlsx
+++ b/5 сем матстат/ЭКЗ/калькуляторы.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Равенство средних" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Выборка">Лист1!$C$1:$V$1</definedName>
+    <definedName name="Выборка">Лист1!$C$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>ВЫБОРКА:</t>
   </si>
@@ -129,6 +130,48 @@
   </si>
   <si>
     <t>Тест на равномерное</t>
+  </si>
+  <si>
+    <t>xср</t>
+  </si>
+  <si>
+    <t>ско</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>Доверительные интервалы</t>
+  </si>
+  <si>
+    <t>zнабл</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>yср</t>
+  </si>
+  <si>
+    <t>скоx</t>
+  </si>
+  <si>
+    <t>скоy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha </t>
+  </si>
+  <si>
+    <t>zкр</t>
   </si>
 </sst>
 </file>
@@ -178,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +258,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,12 +279,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -243,40 +322,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -439,19 +506,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.52380952380952384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,11 +534,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65302416"/>
-        <c:axId val="65297520"/>
+        <c:axId val="1259656384"/>
+        <c:axId val="1259664544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65302416"/>
+        <c:axId val="1259656384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +581,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65297520"/>
+        <c:crossAx val="1259664544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -522,7 +589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65297520"/>
+        <c:axId val="1259664544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +640,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65302416"/>
+        <c:crossAx val="1259656384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,44 +1262,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>535033</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>67080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5543550"/>
-          <a:ext cx="11698333" cy="2905530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1501,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,13 +1545,13 @@
     <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7">
         <v>1</v>
@@ -1531,16 +1560,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="7">
         <v>3</v>
@@ -1552,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N1" s="7">
         <v>3</v>
@@ -1570,36 +1599,39 @@
         <v>4</v>
       </c>
       <c r="S1" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T1" s="7">
         <v>0</v>
       </c>
       <c r="U1" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="P3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="T3" s="11" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="T3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1642,8 +1674,17 @@
       <c r="V4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1669,27 +1710,27 @@
       </c>
       <c r="L5">
         <f>N5</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <f>L5/$E$15</f>
-        <v>0.4</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="N5">
         <f>FREQUENCY(Выборка,J5)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P5">
         <f>_xlfn.NORM.DIST(J5,$E$9,$E$12,1)-0</f>
-        <v>0.24462764276612914</v>
+        <v>0.27743120497458751</v>
       </c>
       <c r="Q5">
         <f>P5*$E$15</f>
-        <v>4.8925528553225828</v>
+        <v>5.8260553044663377</v>
       </c>
       <c r="R5">
         <f>(L5-Q5)^2/Q5</f>
-        <v>1.9736583420777709</v>
+        <v>4.5948248537769425</v>
       </c>
       <c r="T5">
         <f>(J5-I5)/($E$8)</f>
@@ -1697,14 +1738,22 @@
       </c>
       <c r="U5">
         <f>T5*$E$15</f>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="V5">
         <f>(L5-U5)^2/U5</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>11.009523809523808</v>
+      </c>
+      <c r="X5">
+        <f>_xlfn.EXPON.DIST(I5,1/$E$12,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>X5*$E$15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1734,11 +1783,11 @@
       </c>
       <c r="L6">
         <f>N6-FREQUENCY(Выборка,I6)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M9" si="3">L6/$E$15</f>
-        <v>0.2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N6">
         <f>FREQUENCY(Выборка,J6)</f>
@@ -1746,15 +1795,15 @@
       </c>
       <c r="P6">
         <f t="shared" ref="P6:P8" si="4">_xlfn.NORM.DIST(J6,$E$9,$E$12,1)-_xlfn.NORM.DIST(I6,$E$9,$E$12,1)</f>
-        <v>0.21943854901755788</v>
+        <v>0.21186229441096138</v>
       </c>
       <c r="Q6">
         <f>P6*$E$15</f>
-        <v>4.3887709803511576</v>
+        <v>4.449108182630189</v>
       </c>
       <c r="R6">
         <f>(L6-Q6)^2/Q6</f>
-        <v>3.4438542325374848E-2</v>
+        <v>2.6738723283760959</v>
       </c>
       <c r="T6">
         <f t="shared" ref="T6:T8" si="5">(J6-I6)/($E$8)</f>
@@ -1762,14 +1811,22 @@
       </c>
       <c r="U6">
         <f t="shared" ref="U6:U9" si="6">T6*$E$15</f>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="V6">
         <f t="shared" ref="V6:V9" si="7">(L6-U6)^2/U6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2.4380952380952383</v>
+      </c>
+      <c r="X6">
+        <f>_xlfn.EXPON.DIST(I6,1/$E$12,TRUE)</f>
+        <v>0.43087161035039712</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y9" si="8">X6*$E$15</f>
+        <v>9.0483038173583399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I9" si="8">J6</f>
+        <f t="shared" ref="I7:I9" si="9">J6</f>
         <v>2</v>
       </c>
       <c r="J7">
@@ -1803,7 +1860,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="N7">
         <f>FREQUENCY(Выборка,J7)</f>
@@ -1811,15 +1868,15 @@
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>0.2312947261262317</v>
+        <v>0.21500665093013804</v>
       </c>
       <c r="Q7">
         <f>P7*$E$15</f>
-        <v>4.625894522524634</v>
+        <v>4.5151396695328989</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R6:R9" si="9">(L7-Q7)^2/Q7</f>
-        <v>0.57146417530784288</v>
+        <f t="shared" ref="R7:R8" si="10">(L7-Q7)^2/Q7</f>
+        <v>0.50843348959562795</v>
       </c>
       <c r="T7">
         <f t="shared" si="5"/>
@@ -1827,14 +1884,22 @@
       </c>
       <c r="U7">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.34285714285714292</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X6:X9" si="11">_xlfn.EXPON.DIST(I7,1/$E$12,TRUE)</f>
+        <v>0.6760928760948498</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="8"/>
+        <v>14.197950397991846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="J8">
@@ -1864,27 +1929,27 @@
       </c>
       <c r="L8">
         <f>N8-FREQUENCY(Выборка,I8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N8">
         <f>FREQUENCY(Выборка,J8)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>0.17165663393226205</v>
+        <v>0.16013354412614278</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q7:Q9" si="10">P8*$E$15</f>
-        <v>3.433132678645241</v>
+        <f t="shared" ref="Q8:Q9" si="12">P8*$E$15</f>
+        <v>3.3628044266489985</v>
       </c>
       <c r="R8">
-        <f t="shared" si="9"/>
-        <v>5.464511129363999E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.1207379755660381</v>
       </c>
       <c r="T8">
         <f t="shared" si="5"/>
@@ -1892,21 +1957,29 @@
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>9.5238095238095403E-3</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>0.81565526017582746</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="8"/>
+        <v>17.128760463692377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9">
         <f>AVERAGE(Выборка)</f>
-        <v>2.15</v>
+        <v>2.0476190476190474</v>
       </c>
       <c r="G9" s="5">
         <v>5</v>
@@ -1916,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J9">
@@ -1933,23 +2006,23 @@
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="N9">
         <f>FREQUENCY(Выборка,J9)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9">
         <f>1-_xlfn.NORM.DIST(I9,$E$9,$E$12,1)</f>
-        <v>0.13298244815781923</v>
+        <v>0.13556630555817029</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="10"/>
-        <v>2.6596489631563847</v>
+        <f t="shared" si="12"/>
+        <v>2.8468924167215759</v>
       </c>
       <c r="R9">
         <f>(L9-Q9)^2/Q9</f>
-        <v>0.16360683707555421</v>
+        <v>0.25193321717666284</v>
       </c>
       <c r="T9">
         <f>1-SUM(T5:T8)</f>
@@ -1957,71 +2030,79 @@
       </c>
       <c r="U9">
         <f t="shared" si="6"/>
-        <v>3.9999999999999991</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
-        <v>0.99999999999999933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.1523809523809518</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>0.89508417508349369</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="8"/>
+        <v>18.796767676753369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10">
         <f>MEDIAN(Выборка)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11">
         <f>_xlfn.VAR.S(Выборка)</f>
-        <v>2.7657894736842104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.1476190476190475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12">
         <f>_xlfn.STDEV.S(Выборка)</f>
-        <v>1.6630662866176473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.774153050787628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13">
         <f>SKEW(Выборка)</f>
-        <v>0.27061313031280632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>0.33651102176958486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14">
         <f>KURT(Выборка)</f>
-        <v>-1.0732680317838486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>-1.4112740361710556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1"/>
       <c r="E15">
         <f>COUNT(Выборка)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15" s="8">
         <f>SUM(P5:P9)</f>
@@ -2029,27 +2110,27 @@
       </c>
       <c r="Q15" s="8">
         <f>SUM(Q5:Q9)</f>
-        <v>20</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="R15" s="10">
         <f>SUM(R5:R9)</f>
-        <v>2.7978130080801833</v>
-      </c>
-      <c r="S15" s="14"/>
-      <c r="T15" s="16">
-        <f t="shared" ref="S15:V15" si="11">SUM(T5:T9)</f>
+        <v>8.1498018644913675</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="15">
+        <f t="shared" ref="T15:V15" si="13">SUM(T5:T9)</f>
         <v>1</v>
       </c>
-      <c r="U15" s="16">
-        <f t="shared" si="11"/>
-        <v>20</v>
+      <c r="U15" s="15">
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="V15" s="10">
-        <f t="shared" si="11"/>
-        <v>5.4999999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>14.952380952380951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
@@ -2061,7 +2142,7 @@
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <f>E16-1</f>
         <v>4</v>
       </c>
@@ -2070,7 +2151,7 @@
       </c>
       <c r="P17" s="9">
         <f>_xlfn.CHISQ.TEST(L5:L9,Q5:Q9)</f>
-        <v>0.59221028629774874</v>
+        <v>8.6242349517767464E-2</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="S17" t="s">
@@ -2078,7 +2159,7 @@
       </c>
       <c r="T17" s="9">
         <f>_xlfn.CHISQ.TEST(L5:L9,U5:U9)</f>
-        <v>0.23972947952515347</v>
+        <v>4.8010080935879306E-3</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
@@ -2089,13 +2170,13 @@
         <f>_xlfn.CHISQ.INV(1-5%,E17)</f>
         <v>9.4877290367811575</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T18" s="14">
         <f>_xlfn.CHISQ.INV(1-5%,E17)</f>
         <v>9.4877290367811575</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="11" t="s">
         <v>28</v>
       </c>
       <c r="P19">
@@ -2104,7 +2185,7 @@
       </c>
       <c r="T19">
         <f>IF(V15&gt;T18,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,41 +2197,213 @@
       </c>
       <c r="E48" s="5">
         <f>(E9-3.2)/(E12/SQRT(E15))</f>
-        <v>-2.823545153031624</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+        <v>-2.9765599655376942</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>31</v>
       </c>
       <c r="E49">
         <f>_xlfn.T.INV(1-5%,E15-1)</f>
-        <v>1.7291328115213698</v>
-      </c>
+        <v>1.7247182429207868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="21">
+        <v>24.15</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="21">
+        <v>5</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="18">
+        <f>_xlfn.NORM.S.INV(1-B55/2)</f>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="18">
+        <f>D54*B54/SQRT(B56)</f>
+        <v>0.9799819922700268</v>
+      </c>
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="21">
+        <v>100</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19">
+        <f>B53-D55</f>
+        <v>23.170018007729972</v>
+      </c>
+      <c r="D57" s="19">
+        <f>B53+D55</f>
+        <v>25.129981992270025</v>
+      </c>
+      <c r="E57" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A52:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <f>(B3-B6)/(SQRT(B1^2/B2)+(B7^2/B5))</f>
+        <v>3.5646756145190786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.NORM.S.INV(1-B8)</f>
+        <v>1.6448536269514715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>D11-D10</f>
+        <v>-1.919821987567607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5 сем матстат/ЭКЗ/калькуляторы.xlsx
+++ b/5 сем матстат/ЭКЗ/калькуляторы.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>ВЫБОРКА:</t>
   </si>
@@ -117,9 +117,6 @@
     <t xml:space="preserve">индикатор нормальности </t>
   </si>
   <si>
-    <t>H0: m = 3.2      sigma = ?</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -172,6 +169,33 @@
   </si>
   <si>
     <t>zкр</t>
+  </si>
+  <si>
+    <t>Тест на экспоненциальное</t>
+  </si>
+  <si>
+    <t>H0: m = 2      sigma = ?</t>
+  </si>
+  <si>
+    <t>Корелл Пирсона</t>
+  </si>
+  <si>
+    <t>Xср</t>
+  </si>
+  <si>
+    <t>Yср</t>
+  </si>
+  <si>
+    <t>XYср</t>
+  </si>
+  <si>
+    <t>ско X</t>
+  </si>
+  <si>
+    <t>ско Y</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -327,23 +351,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -506,19 +550,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.52380952380952384</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,11 +578,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1259656384"/>
-        <c:axId val="1259664544"/>
+        <c:axId val="-441453344"/>
+        <c:axId val="-441444640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1259656384"/>
+        <c:axId val="-441453344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +625,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259664544"/>
+        <c:crossAx val="-441444640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -589,7 +633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1259664544"/>
+        <c:axId val="-441444640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +684,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259656384"/>
+        <c:crossAx val="-441453344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,25 +1595,25 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
       </c>
       <c r="G1" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="7">
         <v>4</v>
       </c>
       <c r="I1" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1" s="7">
         <v>3</v>
@@ -1581,7 +1625,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N1" s="7">
         <v>3</v>
@@ -1599,37 +1643,40 @@
         <v>4</v>
       </c>
       <c r="S1" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T1" s="7">
         <v>0</v>
       </c>
       <c r="U1" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V1" s="7">
-        <v>1</v>
-      </c>
-      <c r="W1" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="P3" s="16" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="P3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="T3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="T3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="X3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
@@ -1710,27 +1757,27 @@
       </c>
       <c r="L5">
         <f>N5</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <f>L5/$E$15</f>
-        <v>0.52380952380952384</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
         <f>FREQUENCY(Выборка,J5)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P5">
         <f>_xlfn.NORM.DIST(J5,$E$9,$E$12,1)-0</f>
-        <v>0.27743120497458751</v>
+        <v>0.24044110999226437</v>
       </c>
       <c r="Q5">
         <f>P5*$E$15</f>
-        <v>5.8260553044663377</v>
+        <v>4.8088221998452871</v>
       </c>
       <c r="R5">
         <f>(L5-Q5)^2/Q5</f>
-        <v>4.5948248537769425</v>
+        <v>2.117694381074831</v>
       </c>
       <c r="T5">
         <f>(J5-I5)/($E$8)</f>
@@ -1738,19 +1785,23 @@
       </c>
       <c r="U5">
         <f>T5*$E$15</f>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="V5">
         <f>(L5-U5)^2/U5</f>
-        <v>11.009523809523808</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <f>_xlfn.EXPON.DIST(I5,1/$E$12,TRUE)</f>
-        <v>0</v>
+        <f>0+_xlfn.EXPON.DIST(J5,1/$E$12,TRUE)</f>
+        <v>0.43101856192976018</v>
       </c>
       <c r="Y5">
         <f>X5*$E$15</f>
-        <v>0</v>
+        <v>8.6203712385952045</v>
+      </c>
+      <c r="Z5">
+        <f>(P5-Y5)^2/Y5</f>
+        <v>8.1461954498970073</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1783,27 +1834,27 @@
       </c>
       <c r="L6">
         <f>N6-FREQUENCY(Выборка,I6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M9" si="3">L6/$E$15</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0.1</v>
       </c>
       <c r="N6">
         <f>FREQUENCY(Выборка,J6)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <f t="shared" ref="P6:P8" si="4">_xlfn.NORM.DIST(J6,$E$9,$E$12,1)-_xlfn.NORM.DIST(I6,$E$9,$E$12,1)</f>
-        <v>0.21186229441096138</v>
+        <v>0.20350299870048333</v>
       </c>
       <c r="Q6">
         <f>P6*$E$15</f>
-        <v>4.449108182630189</v>
+        <v>4.0700599740096663</v>
       </c>
       <c r="R6">
         <f>(L6-Q6)^2/Q6</f>
-        <v>2.6738723283760959</v>
+        <v>1.0528464748334745</v>
       </c>
       <c r="T6">
         <f t="shared" ref="T6:T8" si="5">(J6-I6)/($E$8)</f>
@@ -1811,19 +1862,23 @@
       </c>
       <c r="U6">
         <f t="shared" ref="U6:U9" si="6">T6*$E$15</f>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="V6">
         <f t="shared" ref="V6:V9" si="7">(L6-U6)^2/U6</f>
-        <v>2.4380952380952383</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <f>_xlfn.EXPON.DIST(I6,1/$E$12,TRUE)</f>
-        <v>0.43087161035039712</v>
+        <f>-_xlfn.EXPON.DIST(I6,1/$E$12,TRUE)+_xlfn.EXPON.DIST(J6,1/$E$12,TRUE)</f>
+        <v>0.24524156120176166</v>
       </c>
       <c r="Y6">
         <f t="shared" ref="Y6:Y9" si="8">X6*$E$15</f>
-        <v>9.0483038173583399</v>
+        <v>4.9048312240352328</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z9" si="9">(P6-Y6)^2/Y6</f>
+        <v>4.5062686304107604</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1843,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I9" si="9">J6</f>
+        <f t="shared" ref="I7:I9" si="10">J6</f>
         <v>2</v>
       </c>
       <c r="J7">
@@ -1856,27 +1911,27 @@
       </c>
       <c r="L7">
         <f>N7-FREQUENCY(Выборка,I7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
         <f>FREQUENCY(Выборка,J7)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>0.21500665093013804</v>
+        <v>0.21988294341391146</v>
       </c>
       <c r="Q7">
         <f>P7*$E$15</f>
-        <v>4.5151396695328989</v>
+        <v>4.3976588682782296</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R8" si="10">(L7-Q7)^2/Q7</f>
-        <v>0.50843348959562795</v>
+        <f t="shared" ref="R7:R8" si="11">(L7-Q7)^2/Q7</f>
+        <v>3.5958354264580418E-2</v>
       </c>
       <c r="T7">
         <f t="shared" si="5"/>
@@ -1884,19 +1939,23 @@
       </c>
       <c r="U7">
         <f t="shared" si="6"/>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
-        <v>0.34285714285714292</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X6:X9" si="11">_xlfn.EXPON.DIST(I7,1/$E$12,TRUE)</f>
-        <v>0.6760928760948498</v>
+        <f t="shared" ref="X7:X8" si="12">-_xlfn.EXPON.DIST(I7,1/$E$12,TRUE)+_xlfn.EXPON.DIST(J7,1/$E$12,TRUE)</f>
+        <v>0.13953789616716905</v>
       </c>
       <c r="Y7">
         <f t="shared" si="8"/>
-        <v>14.197950397991846</v>
+        <v>2.790757923343381</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="9"/>
+        <v>2.3683165448148817</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1916,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J8">
@@ -1933,23 +1992,23 @@
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>0.19047619047619047</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
         <f>FREQUENCY(Выборка,J8)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>0.16013354412614278</v>
+        <v>0.17431193326278493</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:Q9" si="12">P8*$E$15</f>
-        <v>3.3628044266489985</v>
+        <f t="shared" ref="Q8:Q9" si="13">P8*$E$15</f>
+        <v>3.4862386652556987</v>
       </c>
       <c r="R8">
-        <f t="shared" si="10"/>
-        <v>0.1207379755660381</v>
+        <f t="shared" si="11"/>
+        <v>7.5712174186125761E-2</v>
       </c>
       <c r="T8">
         <f t="shared" si="5"/>
@@ -1957,19 +2016,23 @@
       </c>
       <c r="U8">
         <f t="shared" si="6"/>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
-        <v>9.5238095238095403E-3</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f t="shared" si="11"/>
-        <v>0.81565526017582746</v>
+        <f t="shared" si="12"/>
+        <v>7.9394472826491702E-2</v>
       </c>
       <c r="Y8">
         <f t="shared" si="8"/>
-        <v>17.128760463692377</v>
+        <v>1.587889456529834</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="9"/>
+        <v>1.258400832670471</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1979,7 +2042,7 @@
       <c r="C9" s="1"/>
       <c r="E9">
         <f>AVERAGE(Выборка)</f>
-        <v>2.0476190476190474</v>
+        <v>2.25</v>
       </c>
       <c r="G9" s="5">
         <v>5</v>
@@ -1989,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="J9">
@@ -2006,23 +2069,23 @@
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0.1</v>
       </c>
       <c r="N9">
         <f>FREQUENCY(Выборка,J9)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9">
         <f>1-_xlfn.NORM.DIST(I9,$E$9,$E$12,1)</f>
-        <v>0.13556630555817029</v>
+        <v>0.16186101463055591</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="12"/>
-        <v>2.8468924167215759</v>
+        <f t="shared" si="13"/>
+        <v>3.2372202926111182</v>
       </c>
       <c r="R9">
         <f>(L9-Q9)^2/Q9</f>
-        <v>0.25193321717666284</v>
+        <v>0.47284828157742648</v>
       </c>
       <c r="T9">
         <f>1-SUM(T5:T8)</f>
@@ -2030,19 +2093,23 @@
       </c>
       <c r="U9">
         <f t="shared" si="6"/>
-        <v>4.1999999999999993</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
-        <v>1.1523809523809518</v>
+        <v>0.99999999999999933</v>
       </c>
       <c r="X9">
-        <f t="shared" si="11"/>
-        <v>0.89508417508349369</v>
+        <f>-_xlfn.EXPON.DIST(I9,1/$E$12,TRUE)+1</f>
+        <v>0.10480750787481741</v>
       </c>
       <c r="Y9">
         <f t="shared" si="8"/>
-        <v>18.796767676753369</v>
+        <v>2.0961501574963481</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="9"/>
+        <v>1.7849267500365129</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2052,7 +2119,7 @@
       <c r="C10" s="1"/>
       <c r="E10">
         <f>MEDIAN(Выборка)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2062,7 +2129,7 @@
       <c r="C11" s="1"/>
       <c r="E11">
         <f>_xlfn.VAR.S(Выборка)</f>
-        <v>3.1476190476190475</v>
+        <v>3.1447368421052633</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2072,7 +2139,7 @@
       <c r="C12" s="1"/>
       <c r="E12">
         <f>_xlfn.STDEV.S(Выборка)</f>
-        <v>1.774153050787628</v>
+        <v>1.7733405882980469</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -2082,7 +2149,7 @@
       <c r="C13" s="1"/>
       <c r="E13">
         <f>SKEW(Выборка)</f>
-        <v>0.33651102176958486</v>
+        <v>1.9662045586073179E-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2092,7 +2159,7 @@
       <c r="C14" s="1"/>
       <c r="E14">
         <f>KURT(Выборка)</f>
-        <v>-1.4112740361710556</v>
+        <v>-1.4307666800198127</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2102,7 +2169,7 @@
       <c r="C15" s="1"/>
       <c r="E15">
         <f>COUNT(Выборка)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P15" s="8">
         <f>SUM(P5:P9)</f>
@@ -2110,24 +2177,40 @@
       </c>
       <c r="Q15" s="8">
         <f>SUM(Q5:Q9)</f>
-        <v>21.000000000000004</v>
+        <v>20</v>
       </c>
       <c r="R15" s="10">
         <f>SUM(R5:R9)</f>
-        <v>8.1498018644913675</v>
+        <v>3.7550596659364381</v>
       </c>
       <c r="S15" s="13"/>
       <c r="T15" s="15">
-        <f t="shared" ref="T15:V15" si="13">SUM(T5:T9)</f>
+        <f t="shared" ref="T15:Z15" si="14">SUM(T5:T9)</f>
         <v>1</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="V15" s="10">
-        <f t="shared" si="13"/>
-        <v>14.952380952380951</v>
+        <f t="shared" si="14"/>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="14"/>
+        <v>18.06410820782963</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2138,7 +2221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -2147,22 +2230,29 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="9">
         <f>_xlfn.CHISQ.TEST(L5:L9,Q5:Q9)</f>
-        <v>8.6242349517767464E-2</v>
+        <v>0.44016852953263252</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" s="9">
         <f>_xlfn.CHISQ.TEST(L5:L9,U5:U9)</f>
-        <v>4.8010080935879306E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+        <v>0.19914827347145583</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="9">
+        <f>_xlfn.CHISQ.TEST(L5:L9,Y5:Y9)</f>
+        <v>0.2023421358355241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O18" t="s">
         <v>25</v>
       </c>
@@ -2174,8 +2264,12 @@
         <f>_xlfn.CHISQ.INV(1-5%,E17)</f>
         <v>9.4877290367811575</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Z18" s="14">
+        <f>_xlfn.CHISQ.INV(1-5%,E17)</f>
+        <v>9.4877290367811575</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O19" s="11" t="s">
         <v>28</v>
       </c>
@@ -2185,114 +2279,183 @@
       </c>
       <c r="T19">
         <f>IF(V15&gt;T18,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <f>IF(Z15&gt;Z18,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
         <v>29</v>
       </c>
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
       <c r="E48" s="5">
-        <f>(E9-3.2)/(E12/SQRT(E15))</f>
-        <v>-2.9765599655376942</v>
+        <f>(E9-2)/(E12/SQRT(E15))</f>
+        <v>0.63046771507267052</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <f>_xlfn.T.INV(1-5%,E15-1)</f>
-        <v>1.7247182429207868</v>
+        <v>1.7291328115213698</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="19">
+        <v>24.15</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="21">
-        <v>24.15</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="21">
+      <c r="B54" s="19">
         <v>5</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="18">
+      <c r="C54" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="17">
         <f>_xlfn.NORM.S.INV(1-B55/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="22">
+      <c r="A55" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="20">
         <v>0.05</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="18">
+      <c r="C55" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="17">
         <f>D54*B54/SQRT(B56)</f>
         <v>0.9799819922700268</v>
       </c>
-      <c r="E55" s="18"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="21">
+      <c r="A56" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="19">
         <v>100</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18">
         <f>B53-D55</f>
         <v>23.170018007729972</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <f>B53+D55</f>
         <v>25.129981992270025</v>
       </c>
-      <c r="E57" s="18"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69">
+        <f>(D66-(D64*D65))/(D67*D68)</f>
+        <v>3.9941494149414947E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="C63:D63"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="A52:E52"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <conditionalFormatting sqref="P19">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2300,7 +2463,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
+  <conditionalFormatting sqref="Z19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2318,79 +2481,79 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>3.57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>3.11</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="17">
+        <v>45</v>
+      </c>
+      <c r="B8" s="16">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <f>(B3-B6)/(SQRT(B1^2/B2)+(B7^2/B5))</f>
-        <v>3.5646756145190786</v>
+        <v>38.069431777264313</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <f>_xlfn.NORM.S.INV(1-B8)</f>
@@ -2400,7 +2563,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>D11-D10</f>
-        <v>-1.919821987567607</v>
+        <v>-36.42457815031284</v>
       </c>
     </row>
   </sheetData>

--- a/5 сем матстат/ЭКЗ/калькуляторы.xlsx
+++ b/5 сем матстат/ЭКЗ/калькуляторы.xlsx
@@ -332,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -362,6 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -578,11 +579,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-441453344"/>
-        <c:axId val="-441444640"/>
+        <c:axId val="1647043088"/>
+        <c:axId val="1647040912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-441453344"/>
+        <c:axId val="1647043088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +626,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-441444640"/>
+        <c:crossAx val="1647040912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -633,7 +634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-441444640"/>
+        <c:axId val="1647040912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +685,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-441453344"/>
+        <c:crossAx val="1647043088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1577,7 +1578,7 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,10 +2197,7 @@
         <f t="shared" si="14"/>
         <v>5.9999999999999991</v>
       </c>
-      <c r="W15" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="W15" s="13"/>
       <c r="X15" s="10">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -2321,7 +2319,7 @@
         <v>33</v>
       </c>
       <c r="B53" s="19">
-        <v>24.15</v>
+        <v>6.43</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2332,7 +2330,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="19">
-        <v>5</v>
+        <v>0.74988888065721926</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>37</v>
@@ -2355,7 +2353,7 @@
       </c>
       <c r="D55" s="17">
         <f>D54*B54/SQRT(B56)</f>
-        <v>0.9799819922700268</v>
+        <v>0.46477740301177262</v>
       </c>
       <c r="E55" s="17"/>
     </row>
@@ -2364,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -2375,11 +2373,11 @@
       <c r="B57" s="17"/>
       <c r="C57" s="18">
         <f>B53-D55</f>
-        <v>23.170018007729972</v>
+        <v>5.9652225969882267</v>
       </c>
       <c r="D57" s="18">
         <f>B53+D55</f>
-        <v>25.129981992270025</v>
+        <v>6.8947774030117728</v>
       </c>
       <c r="E57" s="17"/>
     </row>
@@ -2433,19 +2431,19 @@
       <c r="C69" t="s">
         <v>55</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="23">
         <f>(D66-(D64*D65))/(D67*D68)</f>
         <v>3.9941494149414947E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <conditionalFormatting sqref="P19">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -2481,7 +2479,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/5 сем матстат/ЭКЗ/калькуляторы.xlsx
+++ b/5 сем матстат/ЭКЗ/калькуляторы.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>ВЫБОРКА:</t>
   </si>
@@ -147,9 +147,6 @@
     <t>res</t>
   </si>
   <si>
-    <t>Доверительные интервалы</t>
-  </si>
-  <si>
     <t>zнабл</t>
   </si>
   <si>
@@ -196,13 +193,19 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>Доверительные интервалы нормальные</t>
+  </si>
+  <si>
+    <t>я</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +246,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="9">
@@ -295,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -327,12 +337,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -356,13 +394,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -579,11 +625,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1647043088"/>
-        <c:axId val="1647040912"/>
+        <c:axId val="-243067744"/>
+        <c:axId val="-243063392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1647043088"/>
+        <c:axId val="-243067744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +672,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1647040912"/>
+        <c:crossAx val="-243063392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -634,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1647040912"/>
+        <c:axId val="-243063392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +731,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1647043088"/>
+        <c:crossAx val="-243067744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1577,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,6 +1634,7 @@
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1658,26 +1705,26 @@
       <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="P3" s="21" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="P3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="T3" s="21" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="T3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="X3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="X3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
@@ -2286,7 +2333,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>29</v>
@@ -2296,7 +2343,7 @@
         <v>0.63046771507267052</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>30</v>
       </c>
@@ -2305,91 +2352,97 @@
         <v>1.7291328115213698</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B53" s="19">
-        <v>6.43</v>
+        <v>1.286</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="19">
-        <v>0.74988888065721926</v>
+        <v>2</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="17">
         <f>_xlfn.NORM.S.INV(1-B55/2)</f>
-        <v>1.9599639845400536</v>
+        <v>2.5758293035488999</v>
       </c>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="20">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="17">
         <f>D54*B54/SQRT(B56)</f>
-        <v>0.46477740301177262</v>
+        <v>2.3038917684685121</v>
       </c>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B56" s="19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18">
         <f>B53-D55</f>
-        <v>5.9652225969882267</v>
+        <v>-1.017891768468512</v>
       </c>
       <c r="D57" s="18">
         <f>B53+D55</f>
-        <v>6.8947774030117728</v>
+        <v>3.5898917684685121</v>
       </c>
       <c r="E57" s="17"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="21" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>49</v>
-      </c>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>50</v>
       </c>
       <c r="D64">
         <v>-0.05</v>
@@ -2397,7 +2450,7 @@
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <v>-0.09</v>
@@ -2405,7 +2458,7 @@
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66">
         <v>0.04</v>
@@ -2413,7 +2466,7 @@
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D67">
         <v>1.01</v>
@@ -2421,7 +2474,7 @@
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68">
         <v>0.88</v>
@@ -2429,9 +2482,9 @@
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="23">
+        <v>54</v>
+      </c>
+      <c r="D69" s="21">
         <f>(D66-(D64*D65))/(D67*D68)</f>
         <v>3.9941494149414947E-2</v>
       </c>
@@ -2470,23 +2523,24 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>0.5</v>
@@ -2510,7 +2564,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -2518,7 +2572,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2526,7 +2580,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -2534,7 +2588,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="16">
         <v>0.05</v>
@@ -2542,26 +2596,31 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <f>(B3-B6)/(SQRT(B1^2/B2)+(B7^2/B5))</f>
-        <v>38.069431777264313</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="26">
+        <f>(B3-B6)/(SQRT((B1^2/B2)+(B7^2/B5)))</f>
+        <v>30.169889330626031</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <f>_xlfn.NORM.S.INV(1-B8)</f>
-        <v>1.6448536269514715</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="26">
+        <f>_xlfn.NORM.S.INV(1-B8/2)</f>
+        <v>1.9599639845400536</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="D12" s="27">
         <f>D11-D10</f>
-        <v>-36.42457815031284</v>
+        <v>-28.209925346085978</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/5 сем матстат/ЭКЗ/калькуляторы.xlsx
+++ b/5 сем матстат/ЭКЗ/калькуляторы.xlsx
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -391,16 +391,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
@@ -409,6 +402,16 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -625,11 +628,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-243067744"/>
-        <c:axId val="-243063392"/>
+        <c:axId val="-156815808"/>
+        <c:axId val="-156810368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-243067744"/>
+        <c:axId val="-156815808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +675,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-243063392"/>
+        <c:crossAx val="-156810368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-243063392"/>
+        <c:axId val="-156810368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +734,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-243067744"/>
+        <c:crossAx val="-156815808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1621,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,9 +1635,9 @@
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1705,26 +1708,26 @@
       <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="P3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="T3" s="22" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="X3" s="22" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G4" s="6" t="s">
@@ -2331,48 +2334,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="5">
-        <f>(E9-2)/(E12/SQRT(E15))</f>
-        <v>0.63046771507267052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49">
-        <f>_xlfn.T.INV(1-5%,E15-1)</f>
-        <v>1.7291328115213698</v>
-      </c>
-    </row>
     <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="19">
-        <v>1.286</v>
+      <c r="B53" s="18">
+        <v>0.78600000000000003</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -2382,7 +2364,7 @@
       <c r="A54" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="18">
         <v>2</v>
       </c>
       <c r="C54" s="17" t="s">
@@ -2398,7 +2380,7 @@
       <c r="A55" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>0.01</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -2414,7 +2396,7 @@
       <c r="A56" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <v>5</v>
       </c>
       <c r="C56" s="17"/>
@@ -2424,21 +2406,21 @@
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
-      <c r="C57" s="18">
+      <c r="C57" s="27">
         <f>B53-D55</f>
-        <v>-1.017891768468512</v>
-      </c>
-      <c r="D57" s="18">
+        <v>-1.517891768468512</v>
+      </c>
+      <c r="D57" s="27">
         <f>B53+D55</f>
-        <v>3.5898917684685121</v>
+        <v>3.0898917684685121</v>
       </c>
       <c r="E57" s="17"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="22"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
@@ -2484,9 +2466,30 @@
       <c r="C69" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="20">
         <f>(D66-(D64*D65))/(D67*D68)</f>
         <v>3.9941494149414947E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="5">
+        <f>(E9-2)/(E12/SQRT(E15))</f>
+        <v>0.63046771507267052</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101">
+        <f>_xlfn.T.INV(1-5%,E15-1)</f>
+        <v>1.7291328115213698</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2536,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2546,8 @@
         <v>42</v>
       </c>
       <c r="B1">
-        <v>0.5</v>
+        <f>SQRT(60)</f>
+        <v>7.745966692414834</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,7 +2555,7 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,7 +2563,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2579,7 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,7 +2587,8 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <f>SQRT(80)</f>
+        <v>8.9442719099991592</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,31 +2596,31 @@
         <v>44</v>
       </c>
       <c r="B8" s="16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="23">
         <f>(B3-B6)/(SQRT((B1^2/B2)+(B7^2/B5)))</f>
-        <v>30.169889330626031</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="23">
         <f>_xlfn.NORM.S.INV(1-B8/2)</f>
-        <v>1.9599639845400536</v>
+        <v>2.5758293035488999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="27">
+      <c r="D12" s="24">
         <f>D11-D10</f>
-        <v>-28.209925346085978</v>
+        <v>7.582930354889994E-2</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.25">
